--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.0613561357088</v>
+        <v>68.36822100000001</v>
       </c>
       <c r="H2">
-        <v>61.0613561357088</v>
+        <v>205.104663</v>
       </c>
       <c r="I2">
-        <v>0.1131561506656306</v>
+        <v>0.1172037804183918</v>
       </c>
       <c r="J2">
-        <v>0.1131561506656306</v>
+        <v>0.1242689311687434</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.648851017954914</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N2">
-        <v>0.648851017954914</v>
+        <v>0.341213</v>
       </c>
       <c r="O2">
-        <v>0.005052891924841843</v>
+        <v>0.0008124832852874854</v>
       </c>
       <c r="P2">
-        <v>0.005052891924841843</v>
+        <v>0.0008136055784376851</v>
       </c>
       <c r="Q2">
-        <v>39.61972308636219</v>
+        <v>7.776041930691001</v>
       </c>
       <c r="R2">
-        <v>39.61972308636219</v>
+        <v>69.984377376219</v>
       </c>
       <c r="S2">
-        <v>0.0005717657999445517</v>
+        <v>9.522611256244798E-05</v>
       </c>
       <c r="T2">
-        <v>0.0005717657999445517</v>
+        <v>0.0001011058956253783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.0613561357088</v>
+        <v>68.36822100000001</v>
       </c>
       <c r="H3">
-        <v>61.0613561357088</v>
+        <v>205.104663</v>
       </c>
       <c r="I3">
-        <v>0.1131561506656306</v>
+        <v>0.1172037804183918</v>
       </c>
       <c r="J3">
-        <v>0.1131561506656306</v>
+        <v>0.1242689311687434</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.43064945394</v>
+        <v>0.69982</v>
       </c>
       <c r="N3">
-        <v>31.43064945394</v>
+        <v>2.09946</v>
       </c>
       <c r="O3">
-        <v>0.2447644689206353</v>
+        <v>0.00499915348515345</v>
       </c>
       <c r="P3">
-        <v>0.2447644689206353</v>
+        <v>0.005006058877319395</v>
       </c>
       <c r="Q3">
-        <v>1919.198079883652</v>
+        <v>47.84544842022</v>
       </c>
       <c r="R3">
-        <v>1919.198079883652</v>
+        <v>430.6090357819801</v>
       </c>
       <c r="S3">
-        <v>0.02769660512277646</v>
+        <v>0.0005859196873517628</v>
       </c>
       <c r="T3">
-        <v>0.02769660512277646</v>
+        <v>0.0006220975860522808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.0613561357088</v>
+        <v>68.36822100000001</v>
       </c>
       <c r="H4">
-        <v>61.0613561357088</v>
+        <v>205.104663</v>
       </c>
       <c r="I4">
-        <v>0.1131561506656306</v>
+        <v>0.1172037804183918</v>
       </c>
       <c r="J4">
-        <v>0.1131561506656306</v>
+        <v>0.1242689311687434</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>96.3323135162349</v>
+        <v>32.57662766666667</v>
       </c>
       <c r="N4">
-        <v>96.3323135162349</v>
+        <v>97.729883</v>
       </c>
       <c r="O4">
-        <v>0.750182639154523</v>
+        <v>0.2327106423571246</v>
       </c>
       <c r="P4">
-        <v>0.750182639154523</v>
+        <v>0.2330320884282319</v>
       </c>
       <c r="Q4">
-        <v>5882.181702991574</v>
+        <v>2227.206079749381</v>
       </c>
       <c r="R4">
-        <v>5882.181702991574</v>
+        <v>20044.85471774443</v>
       </c>
       <c r="S4">
-        <v>0.08488777974290958</v>
+        <v>0.02727456702784733</v>
       </c>
       <c r="T4">
-        <v>0.08488777974290958</v>
+        <v>0.02895864855699648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>154.718555746772</v>
+        <v>68.36822100000001</v>
       </c>
       <c r="H5">
-        <v>154.718555746772</v>
+        <v>205.104663</v>
       </c>
       <c r="I5">
-        <v>0.2867174480360445</v>
+        <v>0.1172037804183918</v>
       </c>
       <c r="J5">
-        <v>0.2867174480360445</v>
+        <v>0.1242689311687434</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.648851017954914</v>
+        <v>106.018215</v>
       </c>
       <c r="N5">
-        <v>0.648851017954914</v>
+        <v>318.054645</v>
       </c>
       <c r="O5">
-        <v>0.005052891924841843</v>
+        <v>0.7573395001671825</v>
       </c>
       <c r="P5">
-        <v>0.005052891924841843</v>
+        <v>0.7583856225290877</v>
       </c>
       <c r="Q5">
-        <v>100.3892923928071</v>
+        <v>7248.276753145516</v>
       </c>
       <c r="R5">
-        <v>100.3892923928071</v>
+        <v>65234.49077830964</v>
       </c>
       <c r="S5">
-        <v>0.00144875227789259</v>
+        <v>0.08876305247976903</v>
       </c>
       <c r="T5">
-        <v>0.00144875227789259</v>
+        <v>0.0942437707254318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.718555746772</v>
+        <v>68.36822100000001</v>
       </c>
       <c r="H6">
-        <v>154.718555746772</v>
+        <v>205.104663</v>
       </c>
       <c r="I6">
-        <v>0.2867174480360445</v>
+        <v>0.1172037804183918</v>
       </c>
       <c r="J6">
-        <v>0.2867174480360445</v>
+        <v>0.1242689311687434</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>31.43064945394</v>
+        <v>0.5793</v>
       </c>
       <c r="N6">
-        <v>31.43064945394</v>
+        <v>1.1586</v>
       </c>
       <c r="O6">
-        <v>0.2447644689206353</v>
+        <v>0.004138220705251913</v>
       </c>
       <c r="P6">
-        <v>0.2447644689206353</v>
+        <v>0.002762624586923423</v>
       </c>
       <c r="Q6">
-        <v>4862.904689696665</v>
+        <v>39.6057104253</v>
       </c>
       <c r="R6">
-        <v>4862.904689696665</v>
+        <v>237.6342625518</v>
       </c>
       <c r="S6">
-        <v>0.0701782438988223</v>
+        <v>0.0004850151108611875</v>
       </c>
       <c r="T6">
-        <v>0.0701782438988223</v>
+        <v>0.000343308404637465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.718555746772</v>
+        <v>172.2060676666667</v>
       </c>
       <c r="H7">
-        <v>154.718555746772</v>
+        <v>516.618203</v>
       </c>
       <c r="I7">
-        <v>0.2867174480360445</v>
+        <v>0.2952132123127602</v>
       </c>
       <c r="J7">
-        <v>0.2867174480360445</v>
+        <v>0.3130089339271965</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>96.3323135162349</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N7">
-        <v>96.3323135162349</v>
+        <v>0.341213</v>
       </c>
       <c r="O7">
-        <v>0.750182639154523</v>
+        <v>0.0008124832852874854</v>
       </c>
       <c r="P7">
-        <v>0.750182639154523</v>
+        <v>0.0008136055784376851</v>
       </c>
       <c r="Q7">
-        <v>14904.39641897711</v>
+        <v>19.58631632224878</v>
       </c>
       <c r="R7">
-        <v>14904.39641897711</v>
+        <v>176.276846900239</v>
       </c>
       <c r="S7">
-        <v>0.2150904518593297</v>
+        <v>0.0002398558006001433</v>
       </c>
       <c r="T7">
-        <v>0.2150904518593297</v>
+        <v>0.0002546658147439999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>108.533072506044</v>
+        <v>172.2060676666667</v>
       </c>
       <c r="H8">
-        <v>108.533072506044</v>
+        <v>516.618203</v>
       </c>
       <c r="I8">
-        <v>0.2011285939572452</v>
+        <v>0.2952132123127602</v>
       </c>
       <c r="J8">
-        <v>0.2011285939572452</v>
+        <v>0.3130089339271965</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.648851017954914</v>
+        <v>0.69982</v>
       </c>
       <c r="N8">
-        <v>0.648851017954914</v>
+        <v>2.09946</v>
       </c>
       <c r="O8">
-        <v>0.005052891924841843</v>
+        <v>0.00499915348515345</v>
       </c>
       <c r="P8">
-        <v>0.005052891924841843</v>
+        <v>0.005006058877319395</v>
       </c>
       <c r="Q8">
-        <v>70.42179457732112</v>
+        <v>120.5132502744867</v>
       </c>
       <c r="R8">
-        <v>70.42179457732112</v>
+        <v>1084.61925247038</v>
       </c>
       <c r="S8">
-        <v>0.001016281048261358</v>
+        <v>0.00147581615919668</v>
       </c>
       <c r="T8">
-        <v>0.001016281048261358</v>
+        <v>0.001566941152366522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>108.533072506044</v>
+        <v>172.2060676666667</v>
       </c>
       <c r="H9">
-        <v>108.533072506044</v>
+        <v>516.618203</v>
       </c>
       <c r="I9">
-        <v>0.2011285939572452</v>
+        <v>0.2952132123127602</v>
       </c>
       <c r="J9">
-        <v>0.2011285939572452</v>
+        <v>0.3130089339271965</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.43064945394</v>
+        <v>32.57662766666667</v>
       </c>
       <c r="N9">
-        <v>31.43064945394</v>
+        <v>97.729883</v>
       </c>
       <c r="O9">
-        <v>0.2447644689206353</v>
+        <v>0.2327106423571246</v>
       </c>
       <c r="P9">
-        <v>0.2447644689206353</v>
+        <v>0.2330320884282319</v>
       </c>
       <c r="Q9">
-        <v>3411.264956096522</v>
+        <v>5609.892948317805</v>
       </c>
       <c r="R9">
-        <v>3411.264956096522</v>
+        <v>50489.03653486025</v>
       </c>
       <c r="S9">
-        <v>0.04922913348469923</v>
+        <v>0.06869925626961264</v>
       </c>
       <c r="T9">
-        <v>0.04922913348469923</v>
+        <v>0.07294112556974905</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>108.533072506044</v>
+        <v>172.2060676666667</v>
       </c>
       <c r="H10">
-        <v>108.533072506044</v>
+        <v>516.618203</v>
       </c>
       <c r="I10">
-        <v>0.2011285939572452</v>
+        <v>0.2952132123127602</v>
       </c>
       <c r="J10">
-        <v>0.2011285939572452</v>
+        <v>0.3130089339271965</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>96.3323135162349</v>
+        <v>106.018215</v>
       </c>
       <c r="N10">
-        <v>96.3323135162349</v>
+        <v>318.054645</v>
       </c>
       <c r="O10">
-        <v>0.750182639154523</v>
+        <v>0.7573395001671825</v>
       </c>
       <c r="P10">
-        <v>0.750182639154523</v>
+        <v>0.7583856225290877</v>
       </c>
       <c r="Q10">
-        <v>10455.24196753249</v>
+        <v>18256.97990618921</v>
       </c>
       <c r="R10">
-        <v>10455.24196753249</v>
+        <v>164312.8191557029</v>
       </c>
       <c r="S10">
-        <v>0.1508831794242847</v>
+        <v>0.2235766266556942</v>
       </c>
       <c r="T10">
-        <v>0.1508831794242847</v>
+        <v>0.237381475213543</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>125.707685803676</v>
+        <v>172.2060676666667</v>
       </c>
       <c r="H11">
-        <v>125.707685803676</v>
+        <v>516.618203</v>
       </c>
       <c r="I11">
-        <v>0.2329558125603099</v>
+        <v>0.2952132123127602</v>
       </c>
       <c r="J11">
-        <v>0.2329558125603099</v>
+        <v>0.3130089339271965</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.648851017954914</v>
+        <v>0.5793</v>
       </c>
       <c r="N11">
-        <v>0.648851017954914</v>
+        <v>1.1586</v>
       </c>
       <c r="O11">
-        <v>0.005052891924841843</v>
+        <v>0.004138220705251913</v>
       </c>
       <c r="P11">
-        <v>0.005052891924841843</v>
+        <v>0.002762624586923423</v>
       </c>
       <c r="Q11">
-        <v>81.56555989847166</v>
+        <v>99.75897499929999</v>
       </c>
       <c r="R11">
-        <v>81.56555989847166</v>
+        <v>598.5538499958001</v>
       </c>
       <c r="S11">
-        <v>0.00117710054413096</v>
+        <v>0.001221657427656593</v>
       </c>
       <c r="T11">
-        <v>0.00117710054413096</v>
+        <v>0.0008647261767939623</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>125.707685803676</v>
+        <v>117.536677</v>
       </c>
       <c r="H12">
-        <v>125.707685803676</v>
+        <v>352.610031</v>
       </c>
       <c r="I12">
-        <v>0.2329558125603099</v>
+        <v>0.2014933646176845</v>
       </c>
       <c r="J12">
-        <v>0.2329558125603099</v>
+        <v>0.2136395683590454</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>31.43064945394</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N12">
-        <v>31.43064945394</v>
+        <v>0.341213</v>
       </c>
       <c r="O12">
-        <v>0.2447644689206353</v>
+        <v>0.0008124832852874854</v>
       </c>
       <c r="P12">
-        <v>0.2447644689206353</v>
+        <v>0.0008136055784376851</v>
       </c>
       <c r="Q12">
-        <v>3951.07420616137</v>
+        <v>13.36834738973367</v>
       </c>
       <c r="R12">
-        <v>3951.07420616137</v>
+        <v>120.315126507603</v>
       </c>
       <c r="S12">
-        <v>0.05701930574329933</v>
+        <v>0.0001637099908482055</v>
       </c>
       <c r="T12">
-        <v>0.05701930574329933</v>
+        <v>0.0001738183445919385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>125.707685803676</v>
+        <v>117.536677</v>
       </c>
       <c r="H13">
-        <v>125.707685803676</v>
+        <v>352.610031</v>
       </c>
       <c r="I13">
-        <v>0.2329558125603099</v>
+        <v>0.2014933646176845</v>
       </c>
       <c r="J13">
-        <v>0.2329558125603099</v>
+        <v>0.2136395683590454</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>96.3323135162349</v>
+        <v>0.69982</v>
       </c>
       <c r="N13">
-        <v>96.3323135162349</v>
+        <v>2.09946</v>
       </c>
       <c r="O13">
-        <v>0.750182639154523</v>
+        <v>0.00499915348515345</v>
       </c>
       <c r="P13">
-        <v>0.750182639154523</v>
+        <v>0.005006058877319395</v>
       </c>
       <c r="Q13">
-        <v>12109.71220024007</v>
+        <v>82.25451729814</v>
       </c>
       <c r="R13">
-        <v>12109.71220024007</v>
+        <v>740.2906556832601</v>
       </c>
       <c r="S13">
-        <v>0.1747594062728797</v>
+        <v>0.001007296255963792</v>
       </c>
       <c r="T13">
-        <v>0.1747594062728797</v>
+        <v>0.001069492257730483</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.5996312807729</v>
+        <v>117.536677</v>
       </c>
       <c r="H14">
-        <v>89.5996312807729</v>
+        <v>352.610031</v>
       </c>
       <c r="I14">
-        <v>0.1660419947807698</v>
+        <v>0.2014933646176845</v>
       </c>
       <c r="J14">
-        <v>0.1660419947807698</v>
+        <v>0.2136395683590454</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.648851017954914</v>
+        <v>32.57662766666667</v>
       </c>
       <c r="N14">
-        <v>0.648851017954914</v>
+        <v>97.729883</v>
       </c>
       <c r="O14">
-        <v>0.005052891924841843</v>
+        <v>0.2327106423571246</v>
       </c>
       <c r="P14">
-        <v>0.005052891924841843</v>
+        <v>0.2330320884282319</v>
       </c>
       <c r="Q14">
-        <v>58.13681196491444</v>
+        <v>3828.948563806264</v>
       </c>
       <c r="R14">
-        <v>58.13681196491444</v>
+        <v>34460.53707425638</v>
       </c>
       <c r="S14">
-        <v>0.0008389922546123829</v>
+        <v>0.04688965031087969</v>
       </c>
       <c r="T14">
-        <v>0.0008389922546123829</v>
+        <v>0.04978487478561437</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.5996312807729</v>
+        <v>117.536677</v>
       </c>
       <c r="H15">
-        <v>89.5996312807729</v>
+        <v>352.610031</v>
       </c>
       <c r="I15">
-        <v>0.1660419947807698</v>
+        <v>0.2014933646176845</v>
       </c>
       <c r="J15">
-        <v>0.1660419947807698</v>
+        <v>0.2136395683590454</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.43064945394</v>
+        <v>106.018215</v>
       </c>
       <c r="N15">
-        <v>31.43064945394</v>
+        <v>318.054645</v>
       </c>
       <c r="O15">
-        <v>0.2447644689206353</v>
+        <v>0.7573395001671825</v>
       </c>
       <c r="P15">
-        <v>0.2447644689206353</v>
+        <v>0.7583856225290877</v>
       </c>
       <c r="Q15">
-        <v>2816.17460198825</v>
+        <v>12461.02869257155</v>
       </c>
       <c r="R15">
-        <v>2816.17460198825</v>
+        <v>112149.258233144</v>
       </c>
       <c r="S15">
-        <v>0.04064118067103801</v>
+        <v>0.1525988840465611</v>
       </c>
       <c r="T15">
-        <v>0.04064118067103801</v>
+        <v>0.1620211770468202</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>117.536677</v>
+      </c>
+      <c r="H16">
+        <v>352.610031</v>
+      </c>
+      <c r="I16">
+        <v>0.2014933646176845</v>
+      </c>
+      <c r="J16">
+        <v>0.2136395683590454</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.5793</v>
+      </c>
+      <c r="N16">
+        <v>1.1586</v>
+      </c>
+      <c r="O16">
+        <v>0.004138220705251913</v>
+      </c>
+      <c r="P16">
+        <v>0.002762624586923423</v>
+      </c>
+      <c r="Q16">
+        <v>68.0889969861</v>
+      </c>
+      <c r="R16">
+        <v>408.5339819166</v>
+      </c>
+      <c r="S16">
+        <v>0.0008338240134317753</v>
+      </c>
+      <c r="T16">
+        <v>0.0005902059242884063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>89.5996312807729</v>
-      </c>
-      <c r="H16">
-        <v>89.5996312807729</v>
-      </c>
-      <c r="I16">
-        <v>0.1660419947807698</v>
-      </c>
-      <c r="J16">
-        <v>0.1660419947807698</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>96.3323135162349</v>
-      </c>
-      <c r="N16">
-        <v>96.3323135162349</v>
-      </c>
-      <c r="O16">
-        <v>0.750182639154523</v>
-      </c>
-      <c r="P16">
-        <v>0.750182639154523</v>
-      </c>
-      <c r="Q16">
-        <v>8631.339771478462</v>
-      </c>
-      <c r="R16">
-        <v>8631.339771478462</v>
-      </c>
-      <c r="S16">
-        <v>0.1245618218551194</v>
-      </c>
-      <c r="T16">
-        <v>0.1245618218551194</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>125.723755</v>
+      </c>
+      <c r="H17">
+        <v>377.1712649999999</v>
+      </c>
+      <c r="I17">
+        <v>0.2155284890972325</v>
+      </c>
+      <c r="J17">
+        <v>0.2285207429394858</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1137376666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.341213</v>
+      </c>
+      <c r="O17">
+        <v>0.0008124832852874854</v>
+      </c>
+      <c r="P17">
+        <v>0.0008136055784376851</v>
+      </c>
+      <c r="Q17">
+        <v>14.29952653827167</v>
+      </c>
+      <c r="R17">
+        <v>128.695738844445</v>
+      </c>
+      <c r="S17">
+        <v>0.0001751132948947674</v>
+      </c>
+      <c r="T17">
+        <v>0.0001859257512442899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>125.723755</v>
+      </c>
+      <c r="H18">
+        <v>377.1712649999999</v>
+      </c>
+      <c r="I18">
+        <v>0.2155284890972325</v>
+      </c>
+      <c r="J18">
+        <v>0.2285207429394858</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.69982</v>
+      </c>
+      <c r="N18">
+        <v>2.09946</v>
+      </c>
+      <c r="O18">
+        <v>0.00499915348515345</v>
+      </c>
+      <c r="P18">
+        <v>0.005006058877319395</v>
+      </c>
+      <c r="Q18">
+        <v>87.98399822409999</v>
+      </c>
+      <c r="R18">
+        <v>791.8559840168999</v>
+      </c>
+      <c r="S18">
+        <v>0.001077459997420287</v>
+      </c>
+      <c r="T18">
+        <v>0.001143988293843836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>125.723755</v>
+      </c>
+      <c r="H19">
+        <v>377.1712649999999</v>
+      </c>
+      <c r="I19">
+        <v>0.2155284890972325</v>
+      </c>
+      <c r="J19">
+        <v>0.2285207429394858</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>32.57662766666667</v>
+      </c>
+      <c r="N19">
+        <v>97.729883</v>
+      </c>
+      <c r="O19">
+        <v>0.2327106423571246</v>
+      </c>
+      <c r="P19">
+        <v>0.2330320884282319</v>
+      </c>
+      <c r="Q19">
+        <v>4095.655955490221</v>
+      </c>
+      <c r="R19">
+        <v>36860.90359941199</v>
+      </c>
+      <c r="S19">
+        <v>0.0501557731440775</v>
+      </c>
+      <c r="T19">
+        <v>0.05325266597635951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>125.723755</v>
+      </c>
+      <c r="H20">
+        <v>377.1712649999999</v>
+      </c>
+      <c r="I20">
+        <v>0.2155284890972325</v>
+      </c>
+      <c r="J20">
+        <v>0.2285207429394858</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>106.018215</v>
+      </c>
+      <c r="N20">
+        <v>318.054645</v>
+      </c>
+      <c r="O20">
+        <v>0.7573395001671825</v>
+      </c>
+      <c r="P20">
+        <v>0.7583856225290877</v>
+      </c>
+      <c r="Q20">
+        <v>13329.00808819732</v>
+      </c>
+      <c r="R20">
+        <v>119961.0727937759</v>
+      </c>
+      <c r="S20">
+        <v>0.1632282382046861</v>
+      </c>
+      <c r="T20">
+        <v>0.1733068458949716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>125.723755</v>
+      </c>
+      <c r="H21">
+        <v>377.1712649999999</v>
+      </c>
+      <c r="I21">
+        <v>0.2155284890972325</v>
+      </c>
+      <c r="J21">
+        <v>0.2285207429394858</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.5793</v>
+      </c>
+      <c r="N21">
+        <v>1.1586</v>
+      </c>
+      <c r="O21">
+        <v>0.004138220705251913</v>
+      </c>
+      <c r="P21">
+        <v>0.002762624586923423</v>
+      </c>
+      <c r="Q21">
+        <v>72.83177127149999</v>
+      </c>
+      <c r="R21">
+        <v>436.990627629</v>
+      </c>
+      <c r="S21">
+        <v>0.0008919044561538286</v>
+      </c>
+      <c r="T21">
+        <v>0.0006313170230666308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>99.49305899999999</v>
+      </c>
+      <c r="H22">
+        <v>198.986118</v>
+      </c>
+      <c r="I22">
+        <v>0.1705611535539311</v>
+      </c>
+      <c r="J22">
+        <v>0.1205618236055289</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1137376666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.341213</v>
+      </c>
+      <c r="O22">
+        <v>0.0008124832852874854</v>
+      </c>
+      <c r="P22">
+        <v>0.0008136055784376851</v>
+      </c>
+      <c r="Q22">
+        <v>11.316108380189</v>
+      </c>
+      <c r="R22">
+        <v>67.89665028113399</v>
+      </c>
+      <c r="S22">
+        <v>0.0001385780863819212</v>
+      </c>
+      <c r="T22">
+        <v>9.80897722320785E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>99.49305899999999</v>
+      </c>
+      <c r="H23">
+        <v>198.986118</v>
+      </c>
+      <c r="I23">
+        <v>0.1705611535539311</v>
+      </c>
+      <c r="J23">
+        <v>0.1205618236055289</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.69982</v>
+      </c>
+      <c r="N23">
+        <v>2.09946</v>
+      </c>
+      <c r="O23">
+        <v>0.00499915348515345</v>
+      </c>
+      <c r="P23">
+        <v>0.005006058877319395</v>
+      </c>
+      <c r="Q23">
+        <v>69.62723254938</v>
+      </c>
+      <c r="R23">
+        <v>417.76339529628</v>
+      </c>
+      <c r="S23">
+        <v>0.0008526613852209271</v>
+      </c>
+      <c r="T23">
+        <v>0.0006035395873262728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>99.49305899999999</v>
+      </c>
+      <c r="H24">
+        <v>198.986118</v>
+      </c>
+      <c r="I24">
+        <v>0.1705611535539311</v>
+      </c>
+      <c r="J24">
+        <v>0.1205618236055289</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>32.57662766666667</v>
+      </c>
+      <c r="N24">
+        <v>97.729883</v>
+      </c>
+      <c r="O24">
+        <v>0.2327106423571246</v>
+      </c>
+      <c r="P24">
+        <v>0.2330320884282319</v>
+      </c>
+      <c r="Q24">
+        <v>3241.148338460699</v>
+      </c>
+      <c r="R24">
+        <v>19446.89003076419</v>
+      </c>
+      <c r="S24">
+        <v>0.03969139560470747</v>
+      </c>
+      <c r="T24">
+        <v>0.02809477353951251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>99.49305899999999</v>
+      </c>
+      <c r="H25">
+        <v>198.986118</v>
+      </c>
+      <c r="I25">
+        <v>0.1705611535539311</v>
+      </c>
+      <c r="J25">
+        <v>0.1205618236055289</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>106.018215</v>
+      </c>
+      <c r="N25">
+        <v>318.054645</v>
+      </c>
+      <c r="O25">
+        <v>0.7573395001671825</v>
+      </c>
+      <c r="P25">
+        <v>0.7583856225290877</v>
+      </c>
+      <c r="Q25">
+        <v>10548.07652006968</v>
+      </c>
+      <c r="R25">
+        <v>63288.4591204181</v>
+      </c>
+      <c r="S25">
+        <v>0.1291726987804722</v>
+      </c>
+      <c r="T25">
+        <v>0.09143235364832109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>99.49305899999999</v>
+      </c>
+      <c r="H26">
+        <v>198.986118</v>
+      </c>
+      <c r="I26">
+        <v>0.1705611535539311</v>
+      </c>
+      <c r="J26">
+        <v>0.1205618236055289</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.5793</v>
+      </c>
+      <c r="N26">
+        <v>1.1586</v>
+      </c>
+      <c r="O26">
+        <v>0.004138220705251913</v>
+      </c>
+      <c r="P26">
+        <v>0.002762624586923423</v>
+      </c>
+      <c r="Q26">
+        <v>57.63632907869999</v>
+      </c>
+      <c r="R26">
+        <v>230.5453163148</v>
+      </c>
+      <c r="S26">
+        <v>0.0007058196971485285</v>
+      </c>
+      <c r="T26">
+        <v>0.0003330670581369589</v>
       </c>
     </row>
   </sheetData>
